--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,48 +46,48 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>smaller</t>
+    <t>small</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>small</t>
+    <t>plastic</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>plastic</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
@@ -100,54 +100,42 @@
     <t>size</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>money</t>
+    <t>work</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>used</t>
+    <t>product</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>use</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>like</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -163,6 +151,9 @@
     <t>favorite</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -178,10 +169,13 @@
     <t>loves</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
   </si>
   <si>
     <t>friends</t>
@@ -551,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,10 +553,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -620,38 +614,38 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="L3">
         <v>46</v>
       </c>
-      <c r="D3">
+      <c r="M3">
         <v>46</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L3">
-        <v>48</v>
-      </c>
-      <c r="M3">
-        <v>48</v>
-      </c>
       <c r="N3">
         <v>1</v>
       </c>
@@ -662,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -670,13 +664,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7954545454545454</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -688,10 +682,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K4">
         <v>0.8</v>
@@ -720,13 +714,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7524271844660194</v>
+        <v>0.765625</v>
       </c>
       <c r="C5">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -738,19 +732,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>0.6559139784946236</v>
+        <v>0.6344086021505376</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -762,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -770,13 +764,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7204301075268817</v>
+        <v>0.7378640776699029</v>
       </c>
       <c r="C6">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="D6">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -788,19 +782,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>0.5625</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L6">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -812,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -820,31 +814,31 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.71875</v>
+        <v>0.7258064516129032</v>
       </c>
       <c r="C7">
+        <v>135</v>
+      </c>
+      <c r="D7">
+        <v>135</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>51</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D7">
-        <v>46</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>18</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K7">
-        <v>0.4492753623188406</v>
+        <v>0.484375</v>
       </c>
       <c r="L7">
         <v>31</v>
@@ -862,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -891,16 +885,16 @@
         <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>0.3663934426229508</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="L8">
-        <v>447</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>447</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -912,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>773</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -920,13 +914,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6756756756756757</v>
+        <v>0.6554054054054054</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -938,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>51</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="K9">
-        <v>0.3448275862068966</v>
+        <v>0.3713114754098361</v>
       </c>
       <c r="L9">
-        <v>240</v>
+        <v>453</v>
       </c>
       <c r="M9">
-        <v>241</v>
+        <v>453</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>456</v>
+        <v>767</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -970,13 +964,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>0.6302521008403361</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -988,19 +982,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>0.2966804979253112</v>
+        <v>0.3371592539454806</v>
       </c>
       <c r="L10">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="M10">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1012,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>339</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1020,13 +1014,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5546218487394958</v>
+        <v>0.625</v>
       </c>
       <c r="C11">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1038,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>0.2228915662650602</v>
+        <v>0.2717842323651452</v>
       </c>
       <c r="L11">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="M11">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1062,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>129</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1070,13 +1064,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5542168674698795</v>
+        <v>0.6</v>
       </c>
       <c r="C12">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1088,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>0.1987767584097859</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="L12">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1112,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>262</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1120,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5370370370370371</v>
+        <v>0.5130434782608696</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>177</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>177</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1138,19 +1132,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>0.1587301587301587</v>
+        <v>0.2201834862385321</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1162,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>159</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1170,13 +1164,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.527536231884058</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="C14">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="D14">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1188,31 +1182,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>0.09824561403508772</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L14">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="N14">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1028</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1220,13 +1214,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4421052631578947</v>
+        <v>0.4645669291338583</v>
       </c>
       <c r="C15">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D15">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1238,31 +1232,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>0.05064935064935065</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L15">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="M15">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="N15">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1462</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1270,39 +1264,63 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4330708661417323</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="C16">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>44</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>51</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D16">
-        <v>55</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="K16">
+        <v>0.1105263157894737</v>
+      </c>
+      <c r="L16">
+        <v>126</v>
+      </c>
+      <c r="M16">
+        <v>127</v>
+      </c>
+      <c r="N16">
+        <v>0.99</v>
+      </c>
+      <c r="O16">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3861386138613861</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C17">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1314,21 +1332,45 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17">
+        <v>0.0512987012987013</v>
+      </c>
+      <c r="L17">
+        <v>79</v>
+      </c>
+      <c r="M17">
+        <v>80</v>
+      </c>
+      <c r="N17">
+        <v>0.99</v>
+      </c>
+      <c r="O17">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3595505617977528</v>
+        <v>0.3762376237623762</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1340,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1369,18 +1411,18 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3222748815165877</v>
+        <v>0.3175355450236967</v>
       </c>
       <c r="C20">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1392,21 +1434,21 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2905982905982906</v>
+        <v>0.2735042735042735</v>
       </c>
       <c r="C21">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1418,21 +1460,21 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2628865979381443</v>
+        <v>0.2525773195876289</v>
       </c>
       <c r="C22">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D22">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1444,21 +1486,21 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2210144927536232</v>
+        <v>0.2341772151898734</v>
       </c>
       <c r="C23">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D23">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1470,73 +1512,73 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2005943536404161</v>
+        <v>0.2246376811594203</v>
       </c>
       <c r="C24">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="D24">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="E24">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1993670886075949</v>
+        <v>0.2154531946508172</v>
       </c>
       <c r="C25">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="D25">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.195</v>
+        <v>0.1930379746835443</v>
       </c>
       <c r="C26">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D26">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1548,21 +1590,21 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1930379746835443</v>
+        <v>0.19</v>
       </c>
       <c r="C27">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D27">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1574,21 +1616,21 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.191588785046729</v>
+        <v>0.1682242990654206</v>
       </c>
       <c r="C28">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1600,21 +1642,21 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1771428571428571</v>
+        <v>0.1563876651982379</v>
       </c>
       <c r="C29">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D29">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1626,73 +1668,73 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1729106628242075</v>
+        <v>0.1436781609195402</v>
       </c>
       <c r="C30">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D30">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E30">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1510416666666667</v>
+        <v>0.1181318681318681</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D31">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1475770925110132</v>
+        <v>0.1086142322097378</v>
       </c>
       <c r="C32">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D32">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1704,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>387</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1712,25 +1754,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1290322580645161</v>
+        <v>0.08731466227347612</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D33">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>216</v>
+        <v>554</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1738,25 +1780,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1132075471698113</v>
+        <v>0.08705357142857142</v>
       </c>
       <c r="C34">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D34">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E34">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F34">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>235</v>
+        <v>409</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1764,129 +1806,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1123287671232877</v>
+        <v>0.03792667509481669</v>
       </c>
       <c r="C35">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D35">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.08781869688385269</v>
-      </c>
-      <c r="C36">
-        <v>31</v>
-      </c>
-      <c r="D36">
-        <v>33</v>
-      </c>
-      <c r="E36">
-        <v>0.06</v>
-      </c>
-      <c r="F36">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.08258928571428571</v>
-      </c>
-      <c r="C37">
-        <v>37</v>
-      </c>
-      <c r="D37">
-        <v>38</v>
-      </c>
-      <c r="E37">
-        <v>0.03</v>
-      </c>
-      <c r="F37">
-        <v>0.97</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0.06435643564356436</v>
-      </c>
-      <c r="C38">
-        <v>39</v>
-      </c>
-      <c r="D38">
-        <v>41</v>
-      </c>
-      <c r="E38">
-        <v>0.05</v>
-      </c>
-      <c r="F38">
-        <v>0.95</v>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.04689480354879594</v>
-      </c>
-      <c r="C39">
-        <v>37</v>
-      </c>
-      <c r="D39">
-        <v>42</v>
-      </c>
-      <c r="E39">
-        <v>0.12</v>
-      </c>
-      <c r="F39">
-        <v>0.88</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>752</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>
